--- a/GAACT_v0/data_ga.xlsx
+++ b/GAACT_v0/data_ga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microsoft VS Studio 2019\Project\GAACT_v0\GAACT_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A6DB5-A097-4255-AA81-B24D79335DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52FC80-4720-4CFB-B01D-BCD361DA4B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BA72C99E-EC47-42B3-9641-7A911BB84A7A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +131,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +197,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84D894-AA00-4790-8662-29B12A13DCE3}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,91 +625,172 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
-        <v>5400</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>13271.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>85.92</v>
-      </c>
-      <c r="G4">
-        <v>24962.3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="6">
-        <v>10</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10">
+        <v>353.61</v>
+      </c>
+      <c r="F4" s="9">
+        <v>50.11</v>
+      </c>
+      <c r="G4" s="12">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5400</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>13249.5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>88.99</v>
-      </c>
-      <c r="G5">
-        <v>24971.599999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="2">
-        <v>19.97</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>200000</v>
+        <v>5400</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6">
+        <v>13271.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>85.92</v>
+      </c>
+      <c r="G6">
+        <v>24962.3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>13249.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>88.99</v>
+      </c>
+      <c r="G7">
+        <v>24971.599999999999</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="2">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5400</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15">
+        <v>26254</v>
+      </c>
+      <c r="F8" s="9">
+        <v>85.92</v>
+      </c>
+      <c r="G8" s="10">
+        <v>24963.1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
         <v>475899</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F10" s="2">
         <v>97.25</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>1031920</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>2.8E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I10" s="2">
         <v>18.14</v>
       </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10">
+        <v>1704330</v>
+      </c>
+      <c r="F11" s="16">
+        <v>97.3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1072220</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
